--- a/MS2/Artefakte/Projektplan.xlsx
+++ b/MS2/Artefakte/Projektplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAD68BCD-28F5-4AC8-8C59-3A639765C43F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E5DAD20-54B4-4B2E-A303-A142E0943FC0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -192,6 +192,27 @@
     <t>Quantitative Usability Goals</t>
   </si>
   <si>
+    <t>Platform Capabilitys and Constraints</t>
+  </si>
+  <si>
+    <t>Recherche</t>
+  </si>
+  <si>
+    <t>General Design Principals</t>
+  </si>
+  <si>
+    <t>Festlegung auf Framework</t>
+  </si>
+  <si>
+    <t>Styleguide</t>
+  </si>
+  <si>
+    <t>Struktur</t>
+  </si>
+  <si>
+    <t>Typographie + Farbgebung</t>
+  </si>
+  <si>
     <t>Work Reengineering</t>
   </si>
   <si>
@@ -201,27 +222,6 @@
     <t>Eventuelle Neuausrichtung bestimmter Artefakte</t>
   </si>
   <si>
-    <t>Platform Capabilitys and Constraints</t>
-  </si>
-  <si>
-    <t>Recherche</t>
-  </si>
-  <si>
-    <t>General Design Principals</t>
-  </si>
-  <si>
-    <t>Festlegung auf Framework</t>
-  </si>
-  <si>
-    <t>Styleguide</t>
-  </si>
-  <si>
-    <t>Struktur</t>
-  </si>
-  <si>
-    <t>Typographie + Farbgebung</t>
-  </si>
-  <si>
     <t>Conceptual Model Design</t>
   </si>
   <si>
@@ -240,6 +240,12 @@
     <t>Wireframe</t>
   </si>
   <si>
+    <t>Mockups</t>
+  </si>
+  <si>
+    <t>Entwerfen von diversen Mockups</t>
+  </si>
+  <si>
     <t>Screen Design Standards</t>
   </si>
   <si>
@@ -247,12 +253,6 @@
   </si>
   <si>
     <t>Weitere Bedingungen</t>
-  </si>
-  <si>
-    <t>Mockups</t>
-  </si>
-  <si>
-    <t>Entwerfen von diversen Mockups</t>
   </si>
   <si>
     <t>Detailed User Interface</t>
@@ -780,15 +780,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -823,14 +814,38 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -844,21 +859,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1143,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="H102" sqref="H102"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1192,7 +1192,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="71" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1211,12 +1211,12 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="59" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="59"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="25"/>
       <c r="F4" s="26"/>
       <c r="G4" s="47" t="s">
@@ -1224,10 +1224,10 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="57"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59" t="s">
+      <c r="A5" s="73"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="25">
@@ -1239,10 +1239,10 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="57"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59" t="s">
+      <c r="A6" s="73"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="25">
@@ -1254,21 +1254,21 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="57"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="59" t="s">
+      <c r="A7" s="73"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="59"/>
+      <c r="D7" s="75"/>
       <c r="E7" s="25"/>
       <c r="F7" s="26"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="82"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="59" t="s">
+      <c r="A8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="75" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="25">
@@ -1277,22 +1277,22 @@
       <c r="F8" s="26">
         <v>0.125</v>
       </c>
-      <c r="G8" s="81"/>
+      <c r="G8" s="77"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="82"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="59"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="75"/>
       <c r="E9" s="25"/>
       <c r="F9" s="26"/>
-      <c r="G9" s="81"/>
+      <c r="G9" s="77"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="57"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59" t="s">
+      <c r="A10" s="73"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="25">
@@ -1304,12 +1304,12 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="57"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="59" t="s">
+      <c r="A11" s="73"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="59"/>
+      <c r="D11" s="75"/>
       <c r="E11" s="25">
         <v>0.125</v>
       </c>
@@ -1319,7 +1319,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="45">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="71" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1336,12 +1336,12 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="57"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="59" t="s">
+      <c r="A13" s="73"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="59"/>
+      <c r="D13" s="75"/>
       <c r="E13" s="25">
         <v>0.20833333333333334</v>
       </c>
@@ -1351,21 +1351,21 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="57"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="59" t="s">
+      <c r="A14" s="73"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="59"/>
+      <c r="D14" s="75"/>
       <c r="E14" s="25"/>
       <c r="F14" s="26"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="57"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59" t="s">
+      <c r="A15" s="73"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="25">
@@ -1377,8 +1377,8 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="57"/>
-      <c r="B16" s="58"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="74"/>
       <c r="C16" s="48"/>
       <c r="D16" s="11" t="s">
         <v>23</v>
@@ -1392,8 +1392,8 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="57"/>
-      <c r="B17" s="58"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="74"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33" t="s">
         <v>24</v>
@@ -1407,8 +1407,8 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="57"/>
-      <c r="B18" s="58"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="74"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33" t="s">
         <v>25</v>
@@ -1422,10 +1422,10 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="57"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59" t="s">
+      <c r="A19" s="73"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="25">
@@ -1437,8 +1437,8 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="57"/>
-      <c r="B20" s="58"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="74"/>
       <c r="C20" s="33"/>
       <c r="D20" s="33" t="s">
         <v>27</v>
@@ -1452,10 +1452,10 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="57"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59" t="s">
+      <c r="A21" s="73"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75" t="s">
         <v>28</v>
       </c>
       <c r="E21" s="25">
@@ -1467,8 +1467,8 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="57"/>
-      <c r="B22" s="58"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="74"/>
       <c r="C22" s="33"/>
       <c r="D22" s="33" t="s">
         <v>29</v>
@@ -1482,8 +1482,8 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="57"/>
-      <c r="B23" s="58"/>
+      <c r="A23" s="73"/>
+      <c r="B23" s="74"/>
       <c r="C23" s="33"/>
       <c r="D23" s="33" t="s">
         <v>30</v>
@@ -1494,13 +1494,13 @@
       <c r="F23" s="35">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G23" s="81"/>
+      <c r="G23" s="77"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="57"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59" t="s">
+      <c r="A24" s="73"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75" t="s">
         <v>31</v>
       </c>
       <c r="E24" s="25">
@@ -1509,11 +1509,11 @@
       <c r="F24" s="26">
         <v>0.20833333333333334</v>
       </c>
-      <c r="G24" s="81"/>
+      <c r="G24" s="77"/>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1">
-      <c r="A25" s="57"/>
-      <c r="B25" s="58"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="74"/>
       <c r="C25" s="33"/>
       <c r="D25" s="33" t="s">
         <v>32</v>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="26" spans="1:9" ht="30">
       <c r="A26" s="8"/>
-      <c r="B26" s="58"/>
+      <c r="B26" s="74"/>
       <c r="C26" s="33"/>
       <c r="D26" s="37" t="s">
         <v>33</v>
@@ -1557,8 +1557,8 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="80"/>
-      <c r="B28" s="80"/>
+      <c r="A28" s="76"/>
+      <c r="B28" s="76"/>
       <c r="C28" s="3" t="s">
         <v>35</v>
       </c>
@@ -1593,7 +1593,7 @@
       <c r="F30" s="41">
         <v>1.4583333333333333</v>
       </c>
-      <c r="H30" s="74"/>
+      <c r="H30" s="70"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="9"/>
@@ -1611,7 +1611,7 @@
       <c r="H31" s="56"/>
     </row>
     <row r="32" spans="1:9" ht="30">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="71" t="s">
         <v>39</v>
       </c>
       <c r="B32" s="12" t="s">
@@ -1628,27 +1628,27 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="8"/>
-      <c r="B33" s="60"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="61"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="63"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="60"/>
       <c r="H33" s="56"/>
       <c r="I33" s="56"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="8"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61" t="s">
+      <c r="B34" s="61"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="62">
+      <c r="E34" s="59">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F34" s="63"/>
+      <c r="F34" s="60"/>
       <c r="H34" s="56"/>
       <c r="I34" s="56"/>
     </row>
@@ -1697,7 +1697,7 @@
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="65" t="s">
+      <c r="D38" s="62" t="s">
         <v>46</v>
       </c>
       <c r="E38" s="27">
@@ -1712,7 +1712,7 @@
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="65" t="s">
+      <c r="D39" s="62" t="s">
         <v>47</v>
       </c>
       <c r="E39" s="27">
@@ -1729,7 +1729,7 @@
       <c r="C40" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="65"/>
+      <c r="D40" s="62"/>
       <c r="E40" s="27"/>
       <c r="F40" s="30"/>
       <c r="H40" s="56"/>
@@ -1747,9 +1747,6 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="F41" s="30"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="56"/>
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1">
       <c r="A42" s="9"/>
@@ -1762,28 +1759,22 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F42" s="30"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="56"/>
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
-      <c r="C43" s="65" t="s">
+      <c r="C43" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="65"/>
+      <c r="D43" s="62"/>
       <c r="E43" s="27"/>
       <c r="F43" s="30"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="56"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65" t="s">
+      <c r="C44" s="62"/>
+      <c r="D44" s="62" t="s">
         <v>52</v>
       </c>
       <c r="E44" s="27">
@@ -1797,8 +1788,8 @@
     <row r="45" spans="1:10">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65" t="s">
+      <c r="C45" s="62"/>
+      <c r="D45" s="62" t="s">
         <v>53</v>
       </c>
       <c r="E45" s="27">
@@ -1812,8 +1803,8 @@
     <row r="46" spans="1:10">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65" t="s">
+      <c r="C46" s="62"/>
+      <c r="D46" s="62" t="s">
         <v>54</v>
       </c>
       <c r="E46" s="27">
@@ -1824,57 +1815,57 @@
       <c r="I46" s="56"/>
       <c r="J46" s="56"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" ht="30">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
-      <c r="C47" s="65" t="s">
+      <c r="C47" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D47" s="65"/>
+      <c r="D47" s="10"/>
       <c r="E47" s="27"/>
       <c r="F47" s="30"/>
       <c r="H47" s="56"/>
       <c r="I47" s="56"/>
       <c r="J47" s="56"/>
     </row>
-    <row r="48" spans="1:10" ht="45">
+    <row r="48" spans="1:10">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="66" t="s">
+      <c r="C48" s="3"/>
+      <c r="D48" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E48" s="27">
-        <v>0.20833333333333334</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="F48" s="30"/>
       <c r="H48" s="56"/>
       <c r="I48" s="56"/>
       <c r="J48" s="56"/>
     </row>
-    <row r="49" spans="1:10" ht="30">
+    <row r="49" spans="1:10">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="66" t="s">
+      <c r="C49" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E49" s="27">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="27"/>
       <c r="F49" s="30"/>
       <c r="H49" s="56"/>
       <c r="I49" s="56"/>
       <c r="J49" s="56"/>
     </row>
-    <row r="50" spans="1:10" ht="30">
+    <row r="50" spans="1:10">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
-      <c r="C50" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="27"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" s="27">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="F50" s="30"/>
       <c r="H50" s="56"/>
       <c r="I50" s="56"/>
@@ -1885,10 +1876,10 @@
       <c r="B51" s="9"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E51" s="27">
-        <v>0.16666666666666666</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="F51" s="30"/>
       <c r="H51" s="56"/>
@@ -1899,7 +1890,7 @@
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="27"/>
@@ -1912,11 +1903,11 @@
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="3" t="s">
-        <v>42</v>
+      <c r="D53" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="E53" s="27">
-        <v>4.1666666666666664E-2</v>
+        <v>0.125</v>
       </c>
       <c r="F53" s="30"/>
       <c r="H53" s="56"/>
@@ -1931,7 +1922,7 @@
         <v>61</v>
       </c>
       <c r="E54" s="27">
-        <v>8.3333333333333329E-2</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="F54" s="30"/>
       <c r="H54" s="56"/>
@@ -1941,40 +1932,40 @@
     <row r="55" spans="1:10">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="D55" s="3"/>
+      <c r="D55" s="62"/>
       <c r="E55" s="27"/>
       <c r="F55" s="30"/>
       <c r="H55" s="56"/>
       <c r="I55" s="56"/>
       <c r="J55" s="56"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" ht="45">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="10" t="s">
+      <c r="C56" s="62"/>
+      <c r="D56" s="63" t="s">
         <v>63</v>
       </c>
       <c r="E56" s="27">
-        <v>0.125</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="F56" s="30"/>
       <c r="H56" s="56"/>
       <c r="I56" s="56"/>
       <c r="J56" s="56"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" ht="30">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3" t="s">
+      <c r="C57" s="62"/>
+      <c r="D57" s="63" t="s">
         <v>64</v>
       </c>
       <c r="E57" s="27">
-        <v>0.20833333333333334</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="F57" s="30"/>
       <c r="H57" s="56"/>
@@ -2082,15 +2073,15 @@
       <c r="I64" s="56"/>
       <c r="J64" s="56"/>
     </row>
-    <row r="65" spans="1:10" ht="30">
+    <row r="65" spans="1:10">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="3"/>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E65" s="27">
-        <v>0.20833333333333334</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="F65" s="30"/>
       <c r="H65" s="56"/>
@@ -2100,26 +2091,26 @@
     <row r="66" spans="1:10">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E66" s="27">
-        <v>0.20833333333333334</v>
-      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="27"/>
       <c r="F66" s="30"/>
       <c r="H66" s="56"/>
       <c r="I66" s="56"/>
       <c r="J66" s="56"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" ht="30">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="3"/>
+      <c r="D67" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D67" s="3"/>
-      <c r="E67" s="27"/>
+      <c r="E67" s="27">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="F67" s="30"/>
       <c r="H67" s="56"/>
       <c r="I67" s="56"/>
@@ -2133,7 +2124,7 @@
         <v>75</v>
       </c>
       <c r="E68" s="27">
-        <v>0.41666666666666669</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="F68" s="30"/>
       <c r="H68" s="56"/>
@@ -2164,9 +2155,6 @@
         <v>0.625</v>
       </c>
       <c r="F70" s="30"/>
-      <c r="H70" s="56"/>
-      <c r="I70" s="56"/>
-      <c r="J70" s="56"/>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="9"/>
@@ -2179,9 +2167,6 @@
         <v>0.625</v>
       </c>
       <c r="F71" s="30"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="56"/>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="9"/>
@@ -2194,9 +2179,6 @@
         <v>0.625</v>
       </c>
       <c r="F72" s="30"/>
-      <c r="H72" s="56"/>
-      <c r="I72" s="56"/>
-      <c r="J72" s="56"/>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="9"/>
@@ -2300,27 +2282,27 @@
       <c r="J79" s="56"/>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="79" t="s">
+      <c r="A80" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="B80" s="78" t="s">
+      <c r="B80" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="C80" s="68"/>
-      <c r="D80" s="68"/>
-      <c r="E80" s="69"/>
-      <c r="F80" s="70"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="66"/>
+      <c r="F80" s="67"/>
       <c r="H80" s="56"/>
       <c r="I80" s="56"/>
       <c r="J80" s="56"/>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="79"/>
-      <c r="B81" s="78"/>
-      <c r="C81" s="68"/>
-      <c r="D81" s="68"/>
-      <c r="E81" s="69"/>
-      <c r="F81" s="70"/>
+      <c r="A81" s="84"/>
+      <c r="B81" s="83"/>
+      <c r="C81" s="65"/>
+      <c r="D81" s="65"/>
+      <c r="E81" s="66"/>
+      <c r="F81" s="67"/>
       <c r="H81" s="56"/>
       <c r="I81" s="56"/>
       <c r="J81" s="56"/>
@@ -2433,8 +2415,8 @@
       <c r="C90" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="65"/>
-      <c r="E90" s="65"/>
+      <c r="D90" s="62"/>
+      <c r="E90" s="62"/>
       <c r="F90" s="30"/>
       <c r="H90" s="56"/>
     </row>
@@ -2480,30 +2462,30 @@
       <c r="H93" s="56"/>
     </row>
     <row r="94" spans="1:13" ht="15" customHeight="1">
-      <c r="A94" s="79" t="s">
+      <c r="A94" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="B94" s="78" t="s">
+      <c r="B94" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="C94" s="68"/>
-      <c r="D94" s="71"/>
-      <c r="E94" s="69"/>
-      <c r="F94" s="70"/>
+      <c r="C94" s="65"/>
+      <c r="D94" s="68"/>
+      <c r="E94" s="66"/>
+      <c r="F94" s="67"/>
       <c r="H94" s="56"/>
     </row>
     <row r="95" spans="1:13" ht="15" customHeight="1">
-      <c r="A95" s="79"/>
-      <c r="B95" s="78"/>
-      <c r="C95" s="68"/>
-      <c r="D95" s="71"/>
-      <c r="E95" s="69"/>
-      <c r="F95" s="70"/>
+      <c r="A95" s="84"/>
+      <c r="B95" s="83"/>
+      <c r="C95" s="65"/>
+      <c r="D95" s="68"/>
+      <c r="E95" s="66"/>
+      <c r="F95" s="67"/>
       <c r="H95" s="56"/>
     </row>
     <row r="96" spans="1:13" ht="15" customHeight="1">
       <c r="A96" s="9"/>
-      <c r="B96" s="67"/>
+      <c r="B96" s="64"/>
       <c r="C96" s="3" t="s">
         <v>103</v>
       </c>
@@ -2526,7 +2508,7 @@
       <c r="H97" s="56"/>
     </row>
     <row r="98" spans="1:8" ht="30">
-      <c r="A98" s="75" t="s">
+      <c r="A98" s="71" t="s">
         <v>105</v>
       </c>
       <c r="B98" s="14" t="s">
@@ -2562,24 +2544,24 @@
       <c r="F100" s="30"/>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="77" t="s">
+      <c r="A101" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="B101" s="76" t="s">
+      <c r="B101" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="C101" s="68"/>
-      <c r="D101" s="68"/>
-      <c r="E101" s="69"/>
-      <c r="F101" s="70"/>
+      <c r="C101" s="65"/>
+      <c r="D101" s="65"/>
+      <c r="E101" s="66"/>
+      <c r="F101" s="67"/>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="77"/>
-      <c r="B102" s="76"/>
-      <c r="C102" s="68"/>
-      <c r="D102" s="68"/>
-      <c r="E102" s="69"/>
-      <c r="F102" s="70"/>
+      <c r="A102" s="82"/>
+      <c r="B102" s="81"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="65"/>
+      <c r="E102" s="66"/>
+      <c r="F102" s="67"/>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="13"/>
@@ -2594,28 +2576,28 @@
       <c r="F103" s="30"/>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="77" t="s">
+      <c r="A104" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="B104" s="76" t="s">
+      <c r="B104" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="C104" s="68"/>
-      <c r="D104" s="68"/>
-      <c r="E104" s="69"/>
-      <c r="F104" s="70"/>
+      <c r="C104" s="65"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="66"/>
+      <c r="F104" s="67"/>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="77"/>
-      <c r="B105" s="76"/>
-      <c r="C105" s="68"/>
-      <c r="D105" s="68"/>
-      <c r="E105" s="69"/>
-      <c r="F105" s="70"/>
+      <c r="A105" s="82"/>
+      <c r="B105" s="81"/>
+      <c r="C105" s="65"/>
+      <c r="D105" s="65"/>
+      <c r="E105" s="66"/>
+      <c r="F105" s="67"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="72"/>
-      <c r="B106" s="73"/>
+      <c r="B106" s="69"/>
       <c r="C106" s="3" t="s">
         <v>81</v>
       </c>
@@ -2625,7 +2607,7 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="72"/>
-      <c r="B107" s="73"/>
+      <c r="B107" s="69"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3" t="s">
         <v>114</v>
@@ -2637,7 +2619,7 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="72"/>
-      <c r="B108" s="73"/>
+      <c r="B108" s="69"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3" t="s">
         <v>115</v>
@@ -2707,12 +2689,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="G8:G9"/>
     <mergeCell ref="B104:B105"/>
     <mergeCell ref="A104:A105"/>
     <mergeCell ref="B80:B81"/>
@@ -2721,6 +2697,12 @@
     <mergeCell ref="A94:A95"/>
     <mergeCell ref="B101:B102"/>
     <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/MS2/Artefakte/Projektplan.xlsx
+++ b/MS2/Artefakte/Projektplan.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21212"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E5DAD20-54B4-4B2E-A303-A142E0943FC0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F42E96A-C8D9-49F0-A71F-BBCBE8A2B941}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -618,7 +618,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -700,7 +700,6 @@
     <xf numFmtId="46" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="46" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="46" fontId="3" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -776,20 +775,8 @@
     <xf numFmtId="46" fontId="4" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="46" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -859,6 +846,36 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="46" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="46" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1143,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1160,7 +1177,7 @@
     <col min="9" max="9" width="40.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1168,7 +1185,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:7" ht="45">
+    <row r="2" spans="1:8" ht="45">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1187,12 +1204,12 @@
       <c r="F2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="45" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1">
-      <c r="A3" s="71" t="s">
+    <row r="3" spans="1:8" ht="30" customHeight="1">
+      <c r="A3" s="66" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1206,28 +1223,29 @@
       <c r="F3" s="24">
         <v>0.625</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="75" t="s">
+      <c r="H3" s="54"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="75"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="25"/>
       <c r="F4" s="26"/>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="46" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="73"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="25">
@@ -1238,11 +1256,11 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="73"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75" t="s">
+    <row r="6" spans="1:8" ht="30">
+      <c r="A6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="25">
@@ -1253,22 +1271,22 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="73"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="75" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="75"/>
+      <c r="D7" s="70"/>
       <c r="E7" s="25"/>
       <c r="F7" s="26"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="78"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="75" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="73"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="70" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="25">
@@ -1277,22 +1295,22 @@
       <c r="F8" s="26">
         <v>0.125</v>
       </c>
-      <c r="G8" s="77"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="78"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="75"/>
+      <c r="G8" s="72"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="73"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="70"/>
       <c r="E9" s="25"/>
       <c r="F9" s="26"/>
-      <c r="G9" s="77"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="73"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75" t="s">
+      <c r="G9" s="72"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="68"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="25">
@@ -1303,13 +1321,13 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="73"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="75" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="68"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="75"/>
+      <c r="D11" s="70"/>
       <c r="E11" s="25">
         <v>0.125</v>
       </c>
@@ -1318,8 +1336,8 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="45">
-      <c r="A12" s="71" t="s">
+    <row r="12" spans="1:8" ht="45">
+      <c r="A12" s="66" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1335,13 +1353,13 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="73"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="75" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" s="68"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="75"/>
+      <c r="D13" s="70"/>
       <c r="E13" s="25">
         <v>0.20833333333333334</v>
       </c>
@@ -1350,22 +1368,22 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="73"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="75" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14" s="68"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="75"/>
+      <c r="D14" s="70"/>
       <c r="E14" s="25"/>
       <c r="F14" s="26"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="73"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" s="68"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="25">
@@ -1376,56 +1394,56 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="73"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="48"/>
+    <row r="16" spans="1:8">
+      <c r="A16" s="68"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="48">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F16" s="50">
+      <c r="F16" s="49">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="73"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33" t="s">
+      <c r="A17" s="68"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="33">
         <v>0.20833333333333334</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17" s="34">
         <v>0.20833333333333334</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="73"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33" t="s">
+      <c r="A18" s="68"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="33">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="34">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="73"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75" t="s">
+      <c r="A19" s="68"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="25">
@@ -1437,25 +1455,25 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="73"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33" t="s">
+      <c r="A20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="33">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20" s="34">
         <v>0.16666666666666666</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="73"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75" t="s">
+      <c r="A21" s="68"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70" t="s">
         <v>28</v>
       </c>
       <c r="E21" s="25">
@@ -1467,40 +1485,40 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="73"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33" t="s">
+      <c r="A22" s="68"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="33">
         <v>0.125</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F22" s="34">
         <v>0.125</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="73"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33" t="s">
+      <c r="A23" s="68"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="33">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F23" s="35">
+      <c r="F23" s="34">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G23" s="77"/>
+      <c r="G23" s="72"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="73"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75" t="s">
+      <c r="A24" s="68"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70" t="s">
         <v>31</v>
       </c>
       <c r="E24" s="25">
@@ -1509,34 +1527,34 @@
       <c r="F24" s="26">
         <v>0.20833333333333334</v>
       </c>
-      <c r="G24" s="77"/>
+      <c r="G24" s="72"/>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1">
-      <c r="A25" s="73"/>
-      <c r="B25" s="74"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33" t="s">
+      <c r="A25" s="68"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25" s="33">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F25" s="35">
+      <c r="F25" s="34">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="30">
       <c r="A26" s="8"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="37" t="s">
+      <c r="B26" s="69"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="37">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F26" s="35">
+      <c r="F26" s="34">
         <v>0.25</v>
       </c>
       <c r="G26" s="1"/>
@@ -1544,27 +1562,27 @@
     <row r="27" spans="1:9">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="48" t="s">
+      <c r="C27" s="50"/>
+      <c r="D27" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="52">
+      <c r="E27" s="51">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F27" s="50">
+      <c r="F27" s="49">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="76"/>
-      <c r="B28" s="76"/>
+      <c r="A28" s="71"/>
+      <c r="B28" s="71"/>
       <c r="C28" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="27"/>
-      <c r="F28" s="53"/>
+      <c r="F28" s="52"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="9"/>
@@ -1576,42 +1594,42 @@
       <c r="E29" s="19">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F29" s="54">
+      <c r="F29" s="53">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="39" t="s">
+      <c r="C30" s="43"/>
+      <c r="D30" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="40">
+      <c r="E30" s="39">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F30" s="41">
+      <c r="F30" s="40">
         <v>1.4583333333333333</v>
       </c>
-      <c r="H30" s="70"/>
+      <c r="H30" s="65"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="42" t="s">
+      <c r="C31" s="44"/>
+      <c r="D31" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="43">
+      <c r="E31" s="42">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F31" s="41">
+      <c r="F31" s="40">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H31" s="56"/>
+      <c r="H31" s="54"/>
     </row>
     <row r="32" spans="1:9" ht="30">
-      <c r="A32" s="71" t="s">
+      <c r="A32" s="66" t="s">
         <v>39</v>
       </c>
       <c r="B32" s="12" t="s">
@@ -1622,269 +1640,295 @@
       <c r="E32" s="20">
         <v>9.0833333333333339</v>
       </c>
-      <c r="F32" s="28"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
+      <c r="F32" s="28">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="8"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="51" t="s">
+      <c r="B33" s="55"/>
+      <c r="C33" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="58"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="60"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="84"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="8"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58" t="s">
+      <c r="B34" s="56"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="59">
+      <c r="E34" s="83">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F34" s="60"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
+      <c r="F34" s="84">
+        <v>0.125</v>
+      </c>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
     </row>
     <row r="35" spans="1:10" ht="30">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="30"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="86"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3" t="s">
+      <c r="C36" s="85"/>
+      <c r="D36" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="27">
+      <c r="E36" s="37">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F36" s="30"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
+      <c r="F36" s="86">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="30"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="87"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="62" t="s">
+      <c r="C38" s="43"/>
+      <c r="D38" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E38" s="39">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F38" s="30"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
+      <c r="F38" s="87">
+        <v>0.25</v>
+      </c>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="62" t="s">
+      <c r="C39" s="43"/>
+      <c r="D39" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="39">
         <v>0.5</v>
       </c>
-      <c r="F39" s="30"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="56"/>
+      <c r="F39" s="87">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="62"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="30"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="56"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="87"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="10" t="s">
+      <c r="C41" s="43"/>
+      <c r="D41" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E41" s="39">
         <v>0.20833333333333334</v>
       </c>
-      <c r="F41" s="30"/>
+      <c r="F41" s="87">
+        <v>0.29166666666666669</v>
+      </c>
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="10" t="s">
+      <c r="C42" s="43"/>
+      <c r="D42" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="E42" s="27">
+      <c r="E42" s="39">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F42" s="30"/>
+      <c r="F42" s="87">
+        <v>8.3333333333333329E-2</v>
+      </c>
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
-      <c r="C43" s="62" t="s">
+      <c r="C43" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="62"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="30"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="86"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62" t="s">
+      <c r="C44" s="80"/>
+      <c r="D44" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="E44" s="27">
+      <c r="E44" s="37">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F44" s="30"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
+      <c r="F44" s="86">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62" t="s">
+      <c r="C45" s="80"/>
+      <c r="D45" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="E45" s="27">
+      <c r="E45" s="37">
         <v>0.29166666666666669</v>
       </c>
-      <c r="F45" s="30"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="56"/>
+      <c r="F45" s="86">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62" t="s">
+      <c r="C46" s="80"/>
+      <c r="D46" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="E46" s="27">
+      <c r="E46" s="37">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F46" s="30"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="56"/>
+      <c r="F46" s="86">
+        <v>0.125</v>
+      </c>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
     </row>
     <row r="47" spans="1:10" ht="30">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="30"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="86"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3" t="s">
+      <c r="C48" s="85"/>
+      <c r="D48" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="E48" s="27">
+      <c r="E48" s="37">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F48" s="30"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="56"/>
+      <c r="F48" s="86">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="30"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="56"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="86"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3" t="s">
+      <c r="C50" s="85"/>
+      <c r="D50" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="E50" s="27">
+      <c r="E50" s="37">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F50" s="30"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="56"/>
+      <c r="F50" s="86">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H50" s="54"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="54"/>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3" t="s">
+      <c r="C51" s="85"/>
+      <c r="D51" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="E51" s="27">
+      <c r="E51" s="37">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F51" s="30"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="56"/>
+      <c r="F51" s="86">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="9"/>
@@ -1894,10 +1938,10 @@
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="27"/>
-      <c r="F52" s="30"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="56"/>
+      <c r="F52" s="29"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="9"/>
@@ -1909,10 +1953,12 @@
       <c r="E53" s="27">
         <v>0.125</v>
       </c>
-      <c r="F53" s="30"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="56"/>
+      <c r="F53" s="29">
+        <v>0.125</v>
+      </c>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="9"/>
@@ -1924,141 +1970,157 @@
       <c r="E54" s="27">
         <v>0.20833333333333334</v>
       </c>
-      <c r="F54" s="30"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
+      <c r="F54" s="29">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="54"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
-      <c r="C55" s="62" t="s">
+      <c r="C55" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="D55" s="62"/>
+      <c r="D55" s="57"/>
       <c r="E55" s="27"/>
-      <c r="F55" s="30"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="56"/>
+      <c r="F55" s="29"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="54"/>
+      <c r="J55" s="54"/>
     </row>
     <row r="56" spans="1:10" ht="45">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="63" t="s">
+      <c r="C56" s="57"/>
+      <c r="D56" s="58" t="s">
         <v>63</v>
       </c>
       <c r="E56" s="27">
         <v>0.20833333333333334</v>
       </c>
-      <c r="F56" s="30"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="56"/>
-      <c r="J56" s="56"/>
+      <c r="F56" s="29">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="54"/>
     </row>
     <row r="57" spans="1:10" ht="30">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="63" t="s">
+      <c r="C57" s="57"/>
+      <c r="D57" s="58" t="s">
         <v>64</v>
       </c>
       <c r="E57" s="27">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F57" s="30"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="56"/>
+      <c r="F57" s="29">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H57" s="54"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="54"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="30"/>
-      <c r="H58" s="56"/>
-      <c r="I58" s="56"/>
-      <c r="J58" s="56"/>
+      <c r="D58" s="85"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="86"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="54"/>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3" t="s">
+      <c r="C59" s="85"/>
+      <c r="D59" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="E59" s="27">
+      <c r="E59" s="37">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F59" s="30"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="56"/>
+      <c r="F59" s="86">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H59" s="54"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="54"/>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3" t="s">
+      <c r="C60" s="85"/>
+      <c r="D60" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="E60" s="27">
+      <c r="E60" s="37">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F60" s="30"/>
-      <c r="H60" s="56"/>
-      <c r="I60" s="56"/>
-      <c r="J60" s="56"/>
+      <c r="F60" s="86">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H60" s="54"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="54"/>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3" t="s">
+      <c r="C61" s="85"/>
+      <c r="D61" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="E61" s="27">
+      <c r="E61" s="37">
         <v>0.20833333333333334</v>
       </c>
-      <c r="F61" s="30"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="56"/>
+      <c r="F61" s="86">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3" t="s">
+      <c r="C62" s="85"/>
+      <c r="D62" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="E62" s="27">
+      <c r="E62" s="37">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F62" s="30"/>
-      <c r="H62" s="56"/>
-      <c r="I62" s="56"/>
-      <c r="J62" s="56"/>
+      <c r="F62" s="86">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3" t="s">
+      <c r="C63" s="85"/>
+      <c r="D63" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="E63" s="27">
+      <c r="E63" s="37">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F63" s="30"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="56"/>
+      <c r="F63" s="86">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="9"/>
@@ -2068,10 +2130,10 @@
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="27"/>
-      <c r="F64" s="30"/>
-      <c r="H64" s="56"/>
-      <c r="I64" s="56"/>
-      <c r="J64" s="56"/>
+      <c r="F64" s="29"/>
+      <c r="H64" s="54"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="54"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="9"/>
@@ -2083,10 +2145,12 @@
       <c r="E65" s="27">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F65" s="30"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="56"/>
+      <c r="F65" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="H65" s="54"/>
+      <c r="I65" s="54"/>
+      <c r="J65" s="54"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="9"/>
@@ -2096,10 +2160,10 @@
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="27"/>
-      <c r="F66" s="30"/>
-      <c r="H66" s="56"/>
-      <c r="I66" s="56"/>
-      <c r="J66" s="56"/>
+      <c r="F66" s="29"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="54"/>
     </row>
     <row r="67" spans="1:10" ht="30">
       <c r="A67" s="9"/>
@@ -2111,10 +2175,12 @@
       <c r="E67" s="27">
         <v>0.20833333333333334</v>
       </c>
-      <c r="F67" s="30"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="56"/>
+      <c r="F67" s="29">
+        <v>0.125</v>
+      </c>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
+      <c r="J67" s="54"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="9"/>
@@ -2126,10 +2192,12 @@
       <c r="E68" s="27">
         <v>0.20833333333333334</v>
       </c>
-      <c r="F68" s="30"/>
-      <c r="H68" s="56"/>
-      <c r="I68" s="56"/>
-      <c r="J68" s="56"/>
+      <c r="F68" s="29">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H68" s="54"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="54"/>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="9"/>
@@ -2139,10 +2207,10 @@
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="27"/>
-      <c r="F69" s="30"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="56"/>
+      <c r="F69" s="29"/>
+      <c r="H69" s="54"/>
+      <c r="I69" s="54"/>
+      <c r="J69" s="54"/>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="9"/>
@@ -2154,7 +2222,9 @@
       <c r="E70" s="27">
         <v>0.625</v>
       </c>
-      <c r="F70" s="30"/>
+      <c r="F70" s="29">
+        <v>0.41666666666666669</v>
+      </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="9"/>
@@ -2166,7 +2236,9 @@
       <c r="E71" s="27">
         <v>0.625</v>
       </c>
-      <c r="F71" s="30"/>
+      <c r="F71" s="29">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="9"/>
@@ -2178,7 +2250,9 @@
       <c r="E72" s="27">
         <v>0.625</v>
       </c>
-      <c r="F72" s="30"/>
+      <c r="F72" s="29">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="9"/>
@@ -2190,10 +2264,12 @@
       <c r="E73" s="27">
         <v>0.20833333333333334</v>
       </c>
-      <c r="F73" s="30"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="56"/>
+      <c r="F73" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H73" s="54"/>
+      <c r="I73" s="54"/>
+      <c r="J73" s="54"/>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="9"/>
@@ -2203,10 +2279,10 @@
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="27"/>
-      <c r="F74" s="30"/>
-      <c r="H74" s="56"/>
-      <c r="I74" s="56"/>
-      <c r="J74" s="56"/>
+      <c r="F74" s="29"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="54"/>
+      <c r="J74" s="54"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="9"/>
@@ -2218,10 +2294,12 @@
       <c r="E75" s="27">
         <v>0.125</v>
       </c>
-      <c r="F75" s="30"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="56"/>
+      <c r="F75" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H75" s="54"/>
+      <c r="I75" s="54"/>
+      <c r="J75" s="54"/>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="9"/>
@@ -2233,10 +2311,12 @@
       <c r="E76" s="27">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F76" s="30"/>
-      <c r="H76" s="56"/>
-      <c r="I76" s="56"/>
-      <c r="J76" s="56"/>
+      <c r="F76" s="29">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H76" s="54"/>
+      <c r="I76" s="54"/>
+      <c r="J76" s="54"/>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="9"/>
@@ -2248,10 +2328,12 @@
       <c r="E77" s="27">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F77" s="30"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="56"/>
+      <c r="F77" s="29">
+        <v>0</v>
+      </c>
+      <c r="H77" s="54"/>
+      <c r="I77" s="54"/>
+      <c r="J77" s="54"/>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="9"/>
@@ -2261,10 +2343,10 @@
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="27"/>
-      <c r="F78" s="30"/>
-      <c r="H78" s="56"/>
-      <c r="I78" s="56"/>
-      <c r="J78" s="56"/>
+      <c r="F78" s="29"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="54"/>
+      <c r="J78" s="54"/>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="9"/>
@@ -2276,36 +2358,38 @@
       <c r="E79" s="27">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F79" s="30"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="56"/>
+      <c r="F79" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H79" s="54"/>
+      <c r="I79" s="54"/>
+      <c r="J79" s="54"/>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="84" t="s">
+      <c r="A80" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="B80" s="83" t="s">
+      <c r="B80" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="C80" s="65"/>
-      <c r="D80" s="65"/>
-      <c r="E80" s="66"/>
-      <c r="F80" s="67"/>
-      <c r="H80" s="56"/>
-      <c r="I80" s="56"/>
-      <c r="J80" s="56"/>
+      <c r="C80" s="60"/>
+      <c r="D80" s="60"/>
+      <c r="E80" s="61"/>
+      <c r="F80" s="62"/>
+      <c r="H80" s="54"/>
+      <c r="I80" s="54"/>
+      <c r="J80" s="54"/>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="84"/>
-      <c r="B81" s="83"/>
-      <c r="C81" s="65"/>
-      <c r="D81" s="65"/>
-      <c r="E81" s="66"/>
-      <c r="F81" s="67"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="56"/>
+      <c r="A81" s="79"/>
+      <c r="B81" s="78"/>
+      <c r="C81" s="60"/>
+      <c r="D81" s="60"/>
+      <c r="E81" s="61"/>
+      <c r="F81" s="62"/>
+      <c r="H81" s="54"/>
+      <c r="I81" s="54"/>
+      <c r="J81" s="54"/>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="9"/>
@@ -2315,184 +2399,202 @@
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="27"/>
-      <c r="F82" s="30"/>
-      <c r="H82" s="56"/>
-      <c r="I82" s="56"/>
-      <c r="J82" s="56"/>
+      <c r="F82" s="29"/>
+      <c r="H82" s="54"/>
+      <c r="I82" s="54"/>
+      <c r="J82" s="54"/>
     </row>
     <row r="83" spans="1:13" ht="30">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="10" t="s">
+      <c r="C83" s="85"/>
+      <c r="D83" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="E83" s="27">
+      <c r="E83" s="37">
         <v>0.125</v>
       </c>
-      <c r="F83" s="30"/>
-      <c r="H83" s="56"/>
+      <c r="F83" s="86">
+        <v>0.125</v>
+      </c>
+      <c r="H83" s="54"/>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3" t="s">
+      <c r="C84" s="43"/>
+      <c r="D84" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="E84" s="27">
+      <c r="E84" s="39">
         <v>0.20833333333333334</v>
       </c>
-      <c r="F84" s="30"/>
-      <c r="H84" s="56"/>
+      <c r="F84" s="87">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H84" s="54"/>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3" t="s">
+      <c r="C85" s="43"/>
+      <c r="D85" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="E85" s="55">
+      <c r="E85" s="90">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F85" s="30"/>
-      <c r="H85" s="56"/>
+      <c r="F85" s="87">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H85" s="54"/>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3" t="s">
+      <c r="C86" s="43"/>
+      <c r="D86" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="E86" s="55">
+      <c r="E86" s="90">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F86" s="30"/>
-      <c r="H86" s="56"/>
+      <c r="F86" s="87">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H86" s="54"/>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3" t="s">
+      <c r="C87" s="43"/>
+      <c r="D87" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="E87" s="27">
+      <c r="E87" s="39">
         <v>0.25</v>
       </c>
-      <c r="F87" s="30"/>
-      <c r="H87" s="56"/>
+      <c r="F87" s="87">
+        <v>0.5</v>
+      </c>
+      <c r="H87" s="54"/>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="D88" s="3"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="30"/>
-      <c r="H88" s="56"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="89"/>
+      <c r="F88" s="87"/>
+      <c r="H88" s="54"/>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3" t="s">
+      <c r="C89" s="43"/>
+      <c r="D89" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="E89" s="55">
+      <c r="E89" s="90">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F89" s="30"/>
-      <c r="H89" s="56"/>
+      <c r="F89" s="87">
+        <v>0.375</v>
+      </c>
+      <c r="H89" s="54"/>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="62"/>
-      <c r="E90" s="62"/>
-      <c r="F90" s="30"/>
-      <c r="H90" s="56"/>
+      <c r="D90" s="88"/>
+      <c r="E90" s="88"/>
+      <c r="F90" s="87"/>
+      <c r="H90" s="54"/>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3" t="s">
+      <c r="C91" s="85"/>
+      <c r="D91" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="E91" s="19">
+      <c r="E91" s="91">
         <v>0.20833333333333334</v>
       </c>
-      <c r="F91" s="30"/>
-      <c r="H91" s="56"/>
+      <c r="F91" s="86">
+        <v>0.125</v>
+      </c>
+      <c r="H91" s="54"/>
       <c r="L91" s="2"/>
       <c r="M91" s="18"/>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3" t="s">
+      <c r="C92" s="43"/>
+      <c r="D92" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="E92" s="19">
+      <c r="E92" s="42">
         <v>0.625</v>
       </c>
-      <c r="F92" s="30"/>
-      <c r="H92" s="56"/>
+      <c r="F92" s="87">
+        <v>0.625</v>
+      </c>
+      <c r="H92" s="54"/>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3" t="s">
+      <c r="C93" s="43"/>
+      <c r="D93" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="E93" s="27">
+      <c r="E93" s="39">
         <v>0.125</v>
       </c>
-      <c r="F93" s="30"/>
-      <c r="H93" s="56"/>
+      <c r="F93" s="87">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H93" s="54"/>
     </row>
     <row r="94" spans="1:13" ht="15" customHeight="1">
-      <c r="A94" s="84" t="s">
+      <c r="A94" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="B94" s="83" t="s">
+      <c r="B94" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="C94" s="65"/>
-      <c r="D94" s="68"/>
-      <c r="E94" s="66"/>
-      <c r="F94" s="67"/>
-      <c r="H94" s="56"/>
+      <c r="C94" s="60"/>
+      <c r="D94" s="63"/>
+      <c r="E94" s="61"/>
+      <c r="F94" s="62"/>
+      <c r="H94" s="54"/>
     </row>
     <row r="95" spans="1:13" ht="15" customHeight="1">
-      <c r="A95" s="84"/>
-      <c r="B95" s="83"/>
-      <c r="C95" s="65"/>
-      <c r="D95" s="68"/>
-      <c r="E95" s="66"/>
-      <c r="F95" s="67"/>
-      <c r="H95" s="56"/>
+      <c r="A95" s="79"/>
+      <c r="B95" s="78"/>
+      <c r="C95" s="60"/>
+      <c r="D95" s="63"/>
+      <c r="E95" s="61"/>
+      <c r="F95" s="62"/>
+      <c r="H95" s="54"/>
     </row>
     <row r="96" spans="1:13" ht="15" customHeight="1">
       <c r="A96" s="9"/>
-      <c r="B96" s="64"/>
+      <c r="B96" s="59"/>
       <c r="C96" s="3" t="s">
         <v>103</v>
       </c>
       <c r="D96" s="10"/>
       <c r="E96" s="27"/>
-      <c r="F96" s="30"/>
-      <c r="H96" s="56"/>
+      <c r="F96" s="29"/>
+      <c r="H96" s="54"/>
     </row>
     <row r="97" spans="1:8" ht="15" customHeight="1">
       <c r="A97" s="9"/>
@@ -2504,11 +2606,13 @@
       <c r="E97" s="27">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F97" s="30"/>
-      <c r="H97" s="56"/>
+      <c r="F97" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="H97" s="54"/>
     </row>
     <row r="98" spans="1:8" ht="30">
-      <c r="A98" s="71" t="s">
+      <c r="A98" s="66" t="s">
         <v>105</v>
       </c>
       <c r="B98" s="14" t="s">
@@ -2529,7 +2633,7 @@
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="27"/>
-      <c r="F99" s="30"/>
+      <c r="F99" s="29"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="13"/>
@@ -2541,27 +2645,27 @@
       <c r="E100" s="27">
         <v>5</v>
       </c>
-      <c r="F100" s="30"/>
+      <c r="F100" s="29"/>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="82" t="s">
+      <c r="A101" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="B101" s="81" t="s">
+      <c r="B101" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="C101" s="65"/>
-      <c r="D101" s="65"/>
-      <c r="E101" s="66"/>
-      <c r="F101" s="67"/>
+      <c r="C101" s="60"/>
+      <c r="D101" s="60"/>
+      <c r="E101" s="61"/>
+      <c r="F101" s="62"/>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="82"/>
-      <c r="B102" s="81"/>
-      <c r="C102" s="65"/>
-      <c r="D102" s="65"/>
-      <c r="E102" s="66"/>
-      <c r="F102" s="67"/>
+      <c r="A102" s="77"/>
+      <c r="B102" s="76"/>
+      <c r="C102" s="60"/>
+      <c r="D102" s="60"/>
+      <c r="E102" s="61"/>
+      <c r="F102" s="62"/>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="13"/>
@@ -2573,41 +2677,41 @@
       <c r="E103" s="27">
         <v>2.5</v>
       </c>
-      <c r="F103" s="30"/>
+      <c r="F103" s="29"/>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="82" t="s">
+      <c r="A104" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="B104" s="81" t="s">
+      <c r="B104" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="C104" s="65"/>
-      <c r="D104" s="65"/>
-      <c r="E104" s="66"/>
-      <c r="F104" s="67"/>
+      <c r="C104" s="60"/>
+      <c r="D104" s="60"/>
+      <c r="E104" s="61"/>
+      <c r="F104" s="62"/>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="82"/>
-      <c r="B105" s="81"/>
-      <c r="C105" s="65"/>
-      <c r="D105" s="65"/>
-      <c r="E105" s="66"/>
-      <c r="F105" s="67"/>
+      <c r="A105" s="77"/>
+      <c r="B105" s="76"/>
+      <c r="C105" s="60"/>
+      <c r="D105" s="60"/>
+      <c r="E105" s="61"/>
+      <c r="F105" s="62"/>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="72"/>
-      <c r="B106" s="69"/>
+      <c r="A106" s="67"/>
+      <c r="B106" s="64"/>
       <c r="C106" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="27"/>
-      <c r="F106" s="30"/>
+      <c r="F106" s="29"/>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="72"/>
-      <c r="B107" s="69"/>
+      <c r="A107" s="67"/>
+      <c r="B107" s="64"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3" t="s">
         <v>114</v>
@@ -2615,11 +2719,11 @@
       <c r="E107" s="27">
         <v>0.20833333333333334</v>
       </c>
-      <c r="F107" s="30"/>
+      <c r="F107" s="29"/>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="72"/>
-      <c r="B108" s="69"/>
+      <c r="A108" s="67"/>
+      <c r="B108" s="64"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3" t="s">
         <v>115</v>
@@ -2627,7 +2731,7 @@
       <c r="E108" s="27">
         <v>0.625</v>
       </c>
-      <c r="F108" s="30"/>
+      <c r="F108" s="29"/>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="13"/>
@@ -2637,7 +2741,7 @@
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="27"/>
-      <c r="F109" s="30"/>
+      <c r="F109" s="29"/>
     </row>
     <row r="110" spans="1:8" ht="30">
       <c r="A110" s="13"/>
@@ -2649,7 +2753,7 @@
       <c r="E110" s="19">
         <v>1.25</v>
       </c>
-      <c r="F110" s="30"/>
+      <c r="F110" s="29"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="13"/>
@@ -2661,7 +2765,7 @@
       <c r="E111" s="27">
         <v>0.125</v>
       </c>
-      <c r="F111" s="30"/>
+      <c r="F111" s="29"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="13"/>
@@ -2673,7 +2777,7 @@
       <c r="E112" s="27">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F112" s="30"/>
+      <c r="F112" s="29"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="15"/>
@@ -2682,10 +2786,10 @@
         <v>119</v>
       </c>
       <c r="D113" s="16"/>
-      <c r="E113" s="31">
+      <c r="E113" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F113" s="32"/>
+      <c r="F113" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="14">
